--- a/biology/Microbiologie/Gélose_Slanetz/Gélose_Slanetz.xlsx
+++ b/biology/Microbiologie/Gélose_Slanetz/Gélose_Slanetz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A9lose_Slanetz</t>
+          <t>Gélose_Slanetz</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La gélose Slanetz est un milieu de culture utilisé pour le dénombrement des Entérocoques (Norme AFNOR NF T 90-416) en microbiologie alimentaire. Son emploi est surtout réservé aux eaux, après filtration.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G%C3%A9lose_Slanetz</t>
+          <t>Gélose_Slanetz</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La composition de ce milieu est la suivante :
 Agar-agar : 10 g
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>G%C3%A9lose_Slanetz</t>
+          <t>Gélose_Slanetz</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,13 +561,15 @@
           <t>Principe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce milieu contient un critère de différenciation : le chlorure de triphényltétrazolium (TTC) qui lors de sa réduction donne une coloration des bactéries en rouge.
 Il contient un inhibiteur des gram -, qui sélectionne les streptocoques : l'azide de sodium.
 Les entérocoques donnent des colonies de taille moyenne, rose ou rouges.
 Des espèces de Bacillus peuvent pousser et donner le même aspect de colonie, mais de taille plus importante.
-Si obtention de colonies rouges violacées en 18 à 24 h, conclure Enterococcus faecalis[1].
+Si obtention de colonies rouges violacées en 18 à 24 h, conclure Enterococcus faecalis.
 </t>
         </is>
       </c>
